--- a/Перевірка.xlsx
+++ b/Перевірка.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUWM\Оптимізація обчислень\Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rostf\OneDrive\Рабочий стол\optimization\lab2Thread-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,96 +493,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,6 +501,96 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,46 +879,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="22.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="8.6640625" style="1" customWidth="1"/>
-    <col min="25" max="32" width="7.6640625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.109375" style="1"/>
+    <col min="15" max="15" width="19.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="8.7109375" style="1" customWidth="1"/>
+    <col min="25" max="32" width="7.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+    <row r="1" spans="2:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="5"/>
       <c r="F2" s="17" t="s">
         <v>8</v>
@@ -926,206 +926,206 @@
       <c r="G2" s="18"/>
       <c r="H2" s="19"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
-      <c r="W2" s="44" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="22"/>
+      <c r="W2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="X2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20">
+    <row r="3" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23">
         <v>2</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="24">
         <v>3</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="25">
         <v>4</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="20">
+      <c r="F3" s="23">
         <f>3/W3</f>
         <v>3</v>
       </c>
-      <c r="G3" s="29">
-        <v>0</v>
-      </c>
-      <c r="H3" s="30">
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="33">
         <v>0</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="20">
+      <c r="J3" s="23">
         <f t="array" ref="J3:L5">MMULT(B3:D5,F3:H5)</f>
         <v>11.285714285714285</v>
       </c>
-      <c r="K3" s="29">
-        <v>0</v>
-      </c>
-      <c r="L3" s="30">
+      <c r="K3" s="32">
+        <v>0</v>
+      </c>
+      <c r="L3" s="33">
         <v>0</v>
       </c>
       <c r="M3" s="6"/>
-      <c r="N3" s="20">
+      <c r="N3" s="23">
         <v>4</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="24">
         <v>2</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="25">
         <v>3</v>
       </c>
       <c r="Q3" s="6"/>
-      <c r="R3" s="20">
+      <c r="R3" s="23">
         <v>5</v>
       </c>
-      <c r="S3" s="29">
-        <v>0</v>
-      </c>
-      <c r="T3" s="30">
-        <v>0</v>
-      </c>
-      <c r="W3" s="40">
+      <c r="S3" s="32">
+        <v>0</v>
+      </c>
+      <c r="T3" s="33">
+        <v>0</v>
+      </c>
+      <c r="W3" s="38">
         <v>1</v>
       </c>
-      <c r="X3" s="41">
+      <c r="X3" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23">
+    <row r="4" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="27">
         <v>62</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="28">
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="23">
+      <c r="F4" s="26">
         <f>3/((W4*W4)+3)</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G4" s="31">
-        <v>0</v>
-      </c>
-      <c r="H4" s="32">
+      <c r="G4" s="34">
+        <v>0</v>
+      </c>
+      <c r="H4" s="35">
         <v>0</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="23">
+      <c r="J4" s="26">
         <v>35.571428571428569</v>
       </c>
-      <c r="K4" s="31">
-        <v>0</v>
-      </c>
-      <c r="L4" s="32">
+      <c r="K4" s="34">
+        <v>0</v>
+      </c>
+      <c r="L4" s="35">
         <v>0</v>
       </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="23">
+      <c r="N4" s="26">
         <v>5</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="27">
         <v>12</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="28">
         <v>4</v>
       </c>
       <c r="Q4" s="6"/>
-      <c r="R4" s="23">
+      <c r="R4" s="26">
         <v>82</v>
       </c>
-      <c r="S4" s="31">
-        <v>0</v>
-      </c>
-      <c r="T4" s="32">
-        <v>0</v>
-      </c>
-      <c r="W4" s="40">
+      <c r="S4" s="34">
+        <v>0</v>
+      </c>
+      <c r="T4" s="35">
+        <v>0</v>
+      </c>
+      <c r="W4" s="38">
         <v>2</v>
       </c>
-      <c r="X4" s="41">
+      <c r="X4" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="26">
+    <row r="5" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29">
         <v>14</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="30">
         <v>5</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="31">
         <v>1</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="26">
+      <c r="F5" s="29">
         <f>3/W5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="33">
-        <v>0</v>
-      </c>
-      <c r="H5" s="34">
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5" s="37">
         <v>0</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="26">
+      <c r="J5" s="29">
         <v>45.142857142857146</v>
       </c>
-      <c r="K5" s="33">
-        <v>0</v>
-      </c>
-      <c r="L5" s="34">
+      <c r="K5" s="36">
+        <v>0</v>
+      </c>
+      <c r="L5" s="37">
         <v>0</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="26">
+      <c r="N5" s="29">
         <v>5</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="30">
         <v>-2</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="31">
         <v>4</v>
       </c>
       <c r="Q5" s="6"/>
-      <c r="R5" s="26">
+      <c r="R5" s="29">
         <v>24</v>
       </c>
-      <c r="S5" s="33">
-        <v>0</v>
-      </c>
-      <c r="T5" s="34">
-        <v>0</v>
-      </c>
-      <c r="W5" s="42">
+      <c r="S5" s="36">
+        <v>0</v>
+      </c>
+      <c r="T5" s="37">
+        <v>0</v>
+      </c>
+      <c r="W5" s="40">
         <v>3</v>
       </c>
-      <c r="X5" s="43">
+      <c r="X5" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1141,200 +1141,200 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="F7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="19"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
-    </row>
-    <row r="8" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20">
+      <c r="S7" s="21"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23">
         <v>4</v>
       </c>
-      <c r="C8" s="29">
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
         <f>R3*3</f>
         <v>15</v>
       </c>
-      <c r="G8" s="29">
-        <f t="shared" ref="F8:H10" si="0">S3-2*C8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
+      <c r="G8" s="32">
+        <f t="shared" ref="G8:H10" si="0">S3-2*C8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="20">
+      <c r="J8" s="23">
         <f>B8+F8</f>
         <v>19</v>
       </c>
-      <c r="K8" s="29">
-        <v>0</v>
-      </c>
-      <c r="L8" s="30">
+      <c r="K8" s="32">
+        <v>0</v>
+      </c>
+      <c r="L8" s="33">
         <v>0</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="20">
+      <c r="N8" s="23">
         <f t="array" ref="N8:P10">MMULT(N3:P5,J8:L10)</f>
         <v>804</v>
       </c>
-      <c r="O8" s="21">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22">
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
         <v>0</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="20">
+      <c r="R8" s="23">
         <v>5</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="24">
         <v>37</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="25">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23">
+    <row r="9" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="31">
-        <v>0</v>
-      </c>
-      <c r="D9" s="32">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
         <f t="shared" ref="F9:F10" si="1">R4*3</f>
         <v>246</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="20">
+      <c r="J9" s="23">
         <f>B9+F9</f>
         <v>253</v>
       </c>
-      <c r="K9" s="31">
-        <v>0</v>
-      </c>
-      <c r="L9" s="32">
+      <c r="K9" s="34">
+        <v>0</v>
+      </c>
+      <c r="L9" s="35">
         <v>0</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="23">
+      <c r="N9" s="26">
         <v>3427</v>
       </c>
-      <c r="O9" s="24">
-        <v>0</v>
-      </c>
-      <c r="P9" s="25">
+      <c r="O9" s="27">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
         <v>0</v>
       </c>
       <c r="Q9" s="4"/>
-      <c r="R9" s="23">
+      <c r="R9" s="26">
         <v>14</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="27">
         <v>-23</v>
       </c>
-      <c r="T9" s="25">
+      <c r="T9" s="28">
         <v>-7</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26">
+    <row r="10" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29">
         <v>2</v>
       </c>
-      <c r="C10" s="33">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="C10" s="36">
+        <v>0</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="20">
-        <f t="shared" ref="J9:J10" si="2">B10+F10</f>
+      <c r="J10" s="23">
+        <f t="shared" ref="J10" si="2">B10+F10</f>
         <v>74</v>
       </c>
-      <c r="K10" s="33">
-        <v>0</v>
-      </c>
-      <c r="L10" s="34">
+      <c r="K10" s="36">
+        <v>0</v>
+      </c>
+      <c r="L10" s="37">
         <v>0</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="26">
+      <c r="N10" s="29">
         <v>-115</v>
       </c>
-      <c r="O10" s="27">
-        <v>0</v>
-      </c>
-      <c r="P10" s="28">
+      <c r="O10" s="30">
+        <v>0</v>
+      </c>
+      <c r="P10" s="31">
         <v>0</v>
       </c>
       <c r="Q10" s="4"/>
-      <c r="R10" s="26">
+      <c r="R10" s="29">
         <v>85</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="30">
         <v>8</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="31">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1353,12 +1353,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="3"/>
       <c r="F12" s="17" t="s">
         <v>10</v>
@@ -1371,58 +1371,58 @@
       <c r="K12" s="18"/>
       <c r="L12" s="19"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="15"/>
-      <c r="P12" s="16"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
       <c r="Q12" s="3"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20">
+    <row r="13" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23">
         <v>1</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="23">
         <v>2</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="42">
         <v>7</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="20">
+      <c r="F13" s="23">
         <f>1/(($W$3+X3)*2)</f>
         <v>0.25</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="23">
         <f>1/(($W$3+X4)*2)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="23">
         <f>1/(($W$3+X5)*2)</f>
         <v>0.125</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="23">
         <f>B13-F13</f>
         <v>0.75</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="23">
         <f t="shared" ref="K13:L15" si="3">C13-G13</f>
         <v>1.8333333333333333</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="23">
         <f t="shared" si="3"/>
         <v>6.875</v>
       </c>
       <c r="M13" s="6"/>
-      <c r="N13" s="20">
+      <c r="N13" s="23">
         <f t="array" ref="N13:P15">MMULT(R8:T10,J13:L15)</f>
         <v>2573.0833333333335</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="24">
         <v>3304.3416666666667</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="25">
         <v>189.00833333333333</v>
       </c>
       <c r="Q13" s="3"/>
@@ -1431,103 +1431,103 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="20">
+    <row r="14" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="23">
         <v>55</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="23">
         <v>77</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="42">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="20">
+      <c r="F14" s="23">
         <f>1/(($W$4+X3)*2)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="23">
         <f>1/(($W$4+X4)*2)</f>
         <v>0.125</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="23">
         <f>1/(($W$4+X5)*2)</f>
         <v>0.1</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="26">
         <f>B14-F14</f>
         <v>54.833333333333336</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="26">
         <f t="shared" si="3"/>
         <v>76.875</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="26">
         <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
       <c r="M14" s="6"/>
-      <c r="N14" s="38">
+      <c r="N14" s="45">
         <v>-1291.7916666666667</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="34">
         <v>-1776.7583333333332</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="35">
         <v>46.13333333333334</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="36">
+    <row r="15" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="43">
         <v>6</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="43">
         <v>5</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="44">
         <v>1</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="36">
+      <c r="F15" s="43">
         <f>1/(($W$5+X3)*2)</f>
         <v>0.125</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="43">
         <f>1/(($W$5+X4)*2)</f>
         <v>0.1</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="43">
         <f>1/(($W$5+X5)*2)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="26">
         <f>B15-F15</f>
         <v>5.875</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="26">
         <f t="shared" si="3"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="26">
         <f t="shared" si="3"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="M15" s="6"/>
-      <c r="N15" s="39">
+      <c r="N15" s="46">
         <v>825.54166666666674</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="36">
         <v>1040.3333333333333</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="37">
         <v>649.99166666666667</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1543,7 +1543,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>12</v>
       </c>
@@ -1559,81 +1559,81 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20">
+    <row r="18" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23">
         <f t="array" ref="B18:D20">TRANSPOSE(J3:L5)</f>
         <v>11.285714285714285</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="24">
         <v>35.571428571428569</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="25">
         <v>45.142857142857146</v>
       </c>
       <c r="E18"/>
-      <c r="F18" s="20">
+      <c r="F18" s="23">
         <f t="array" ref="F18:H20">TRANSPOSE(N8:P10)</f>
         <v>804</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="24">
         <v>3427</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="25">
         <v>-115</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38">
-        <v>0</v>
-      </c>
-      <c r="C19" s="31">
-        <v>0</v>
-      </c>
-      <c r="D19" s="32">
+    <row r="19" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="45">
+        <v>0</v>
+      </c>
+      <c r="C19" s="34">
+        <v>0</v>
+      </c>
+      <c r="D19" s="35">
         <v>0</v>
       </c>
       <c r="E19"/>
-      <c r="F19" s="38">
-        <v>0</v>
-      </c>
-      <c r="G19" s="31">
-        <v>0</v>
-      </c>
-      <c r="H19" s="32">
+      <c r="F19" s="45">
+        <v>0</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
         <v>0</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39">
-        <v>0</v>
-      </c>
-      <c r="C20" s="33">
-        <v>0</v>
-      </c>
-      <c r="D20" s="34">
+    <row r="20" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="46">
+        <v>0</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0</v>
+      </c>
+      <c r="D20" s="37">
         <v>0</v>
       </c>
       <c r="E20"/>
-      <c r="F20" s="39">
-        <v>0</v>
-      </c>
-      <c r="G20" s="33">
-        <v>0</v>
-      </c>
-      <c r="H20" s="34">
+      <c r="F20" s="46">
+        <v>0</v>
+      </c>
+      <c r="G20" s="36">
+        <v>0</v>
+      </c>
+      <c r="H20" s="37">
         <v>0</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1649,11 +1649,11 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="16">
         <v>0.1</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -1673,114 +1673,114 @@
       <c r="O22" s="18"/>
       <c r="P22" s="19"/>
     </row>
-    <row r="23" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="23">
         <f>$C$22*N13</f>
         <v>257.30833333333334</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="23">
         <f t="shared" ref="G23:H25" si="4">$C$22*O13</f>
         <v>330.43416666666667</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="23">
         <f t="shared" si="4"/>
         <v>18.900833333333335</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="23">
         <f t="array" ref="J23:L25">MMULT(N8:P10,F18:H20)</f>
         <v>646416</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="23">
         <v>2755308</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="23">
         <v>-92460</v>
       </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="20">
+      <c r="N23" s="23">
         <f t="array" ref="N23:P25">MMULT(F23:H25,J23:L25)</f>
         <v>1075028555.4400001</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="23">
         <v>4582242362.5533333</v>
       </c>
-      <c r="P23" s="20">
+      <c r="P23" s="23">
         <v>-153766522.23333332</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="20">
+    <row r="24" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="23">
         <f t="shared" ref="F24:F25" si="5">$C$22*N14</f>
         <v>-129.17916666666667</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="23">
         <f t="shared" si="4"/>
         <v>-177.67583333333334</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="23">
         <f t="shared" si="4"/>
         <v>4.6133333333333342</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="23">
         <v>2755308</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="23">
         <v>11744329</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="23">
         <v>-394105</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="20">
+      <c r="N24" s="23">
         <v>-573481673.99000001</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="23">
         <v>-2444429971.0991664</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="23">
         <v>82027851.379166663</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="20">
+    <row r="25" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="23">
         <f t="shared" si="5"/>
         <v>82.554166666666674</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="23">
         <f t="shared" si="4"/>
         <v>104.03333333333333</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="23">
         <f t="shared" si="4"/>
         <v>64.999166666666667</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="23">
         <v>-92460</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="23">
         <v>-394105</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="23">
         <v>13225</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="20">
+      <c r="N25" s="23">
         <v>333998386.85000002</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="23">
         <v>1423647352.9041665</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="23">
         <v>-47773401.104166672</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1796,7 +1796,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -1816,93 +1816,93 @@
       <c r="N27" s="10"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="20">
+      <c r="F28" s="23">
         <f t="array" ref="F28:H30">MMULT(N13:P15,N13:P15)</f>
         <v>2508271.0659722234</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="23">
         <v>2827961.5471527781</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="23">
         <v>761628.32951388892</v>
       </c>
       <c r="I28" s="10"/>
-      <c r="J28" s="20">
+      <c r="J28" s="23">
         <f t="array" ref="J28:L30">MMULT(N13:P15,F28:H30)</f>
         <v>3429609235.5970736</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="23">
         <v>4055927688.1407871</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="23">
         <v>1099599493.7175634</v>
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="20">
+      <c r="F29" s="23">
         <v>-990601.01006944501</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="23">
         <v>-1063656.8093055564</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="23">
         <v>-296140.89215277776</v>
       </c>
       <c r="I29" s="10"/>
-      <c r="J29" s="20">
+      <c r="J29" s="23">
         <v>-1419352592.2146392</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="23">
         <v>-1691508334.3437674</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="23">
         <v>-428790992.10604304</v>
       </c>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="20">
+      <c r="F30" s="23">
         <v>1316888.7767361114</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="23">
         <v>1555658.8045138896</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="23">
         <v>626517.46569444449</v>
       </c>
       <c r="I30" s="10"/>
-      <c r="J30" s="20">
+      <c r="J30" s="23">
         <v>1896093756.2509065</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="23">
         <v>2239207714.0688601</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="23">
         <v>727901810.78034675</v>
       </c>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1918,7 +1918,7 @@
       <c r="N31" s="10"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1941,115 +1941,115 @@
       <c r="O32" s="18"/>
       <c r="P32" s="19"/>
     </row>
-    <row r="33" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="20">
+      <c r="F33" s="23">
         <f t="array" ref="F33:H35">MMULT(N8:P10,B18:D20)</f>
         <v>9073.7142857142844</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="23">
         <v>28599.428571428569</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="23">
         <v>36294.857142857145</v>
       </c>
       <c r="I33" s="10"/>
-      <c r="J33" s="20">
+      <c r="J33" s="23">
         <f t="array" ref="J33:L35">F28:H30*C23</f>
         <v>2508271.0659722234</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="23">
         <v>2827961.5471527781</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="23">
         <v>761628.32951388892</v>
       </c>
       <c r="M33" s="10"/>
-      <c r="N33" s="20">
+      <c r="N33" s="23">
         <f t="array" ref="N33:P35">MMULT(J33:L35,B18:D20)</f>
         <v>28307630.601686519</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O33" s="23">
         <v>89222785.06101194</v>
       </c>
-      <c r="P33" s="20">
+      <c r="P33" s="23">
         <v>113230522.40674609</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="20">
+      <c r="F34" s="23">
         <v>38676.142857142855</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="23">
         <v>121903.28571428571</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="23">
         <v>154704.57142857145</v>
       </c>
       <c r="I34" s="10"/>
-      <c r="J34" s="20">
+      <c r="J34" s="23">
         <v>-990601.01006944501</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="23">
         <v>-1063656.8093055564</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="23">
         <v>-296140.89215277776</v>
       </c>
       <c r="M34" s="10"/>
-      <c r="N34" s="20">
+      <c r="N34" s="23">
         <v>-11179639.970783735</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="23">
         <v>-35237093.072470255</v>
       </c>
-      <c r="P34" s="20">
+      <c r="P34" s="23">
         <v>-44718559.883134946</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="20">
+      <c r="F35" s="23">
         <v>-1297.8571428571427</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="23">
         <v>-4090.7142857142853</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="23">
         <v>-5191.4285714285716</v>
       </c>
       <c r="I35" s="10"/>
-      <c r="J35" s="20">
+      <c r="J35" s="23">
         <v>1316888.7767361114</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="23">
         <v>1555658.8045138896</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="23">
         <v>626517.46569444449</v>
       </c>
       <c r="M35" s="10"/>
-      <c r="N35" s="20">
+      <c r="N35" s="23">
         <v>14862030.480307542</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="23">
         <v>46843615.058184534</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P35" s="23">
         <v>59448121.921230175</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -2065,7 +2065,7 @@
       <c r="N36" s="10"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -2088,115 +2088,115 @@
       <c r="O37" s="18"/>
       <c r="P37" s="19"/>
     </row>
-    <row r="38" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="20">
+      <c r="F38" s="23">
         <f t="array" ref="F38:H40">N23:P25+J28:L30</f>
         <v>4504637791.0370731</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="23">
         <v>8638170050.6941204</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="23">
         <v>945832971.48423004</v>
       </c>
       <c r="I38" s="10"/>
-      <c r="J38" s="20">
+      <c r="J38" s="23">
         <f t="array" ref="J38:L40">F38:H40-N13:P15</f>
         <v>4504635217.9537401</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="23">
         <v>8638166746.3524532</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="23">
         <v>945832782.47589672</v>
       </c>
       <c r="M38" s="10"/>
-      <c r="N38" s="20">
+      <c r="N38" s="23">
         <f t="array" ref="N38:P40">J38:L40+F33:H35</f>
         <v>4504644291.668026</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O38" s="23">
         <v>8638195345.7810249</v>
       </c>
-      <c r="P38" s="20">
+      <c r="P38" s="23">
         <v>945869077.33303952</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="20">
+      <c r="F39" s="23">
         <v>-1992834266.2046392</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="23">
         <v>-4135938305.442934</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="23">
         <v>-346763140.72687638</v>
       </c>
       <c r="I39" s="10"/>
-      <c r="J39" s="20">
+      <c r="J39" s="23">
         <v>-1992832974.4129725</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="23">
         <v>-4135936528.6846008</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="23">
         <v>-346763186.8602097</v>
       </c>
       <c r="M39" s="10"/>
-      <c r="N39" s="20">
+      <c r="N39" s="23">
         <v>-1992794298.2701154</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O39" s="23">
         <v>-4135814625.3988867</v>
       </c>
-      <c r="P39" s="20">
+      <c r="P39" s="23">
         <v>-346608482.28878111</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="20">
+      <c r="F40" s="23">
         <v>2230092143.1009064</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="23">
         <v>3662855066.9730263</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="23">
         <v>680128409.67618012</v>
       </c>
       <c r="I40" s="10"/>
-      <c r="J40" s="20">
+      <c r="J40" s="23">
         <v>2230091317.5592399</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="23">
         <v>3662854026.6396928</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="23">
         <v>680127759.68451345</v>
       </c>
       <c r="M40" s="10"/>
-      <c r="N40" s="20">
+      <c r="N40" s="23">
         <v>2230090019.7020969</v>
       </c>
-      <c r="O40" s="20">
+      <c r="O40" s="23">
         <v>3662849935.9254069</v>
       </c>
-      <c r="P40" s="20">
+      <c r="P40" s="23">
         <v>680122568.25594199</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -2212,7 +2212,7 @@
       <c r="N41" s="10"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -2230,19 +2230,19 @@
       <c r="N42" s="10"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="20">
+      <c r="F43" s="23">
         <f t="array" ref="F43:H45">N38:P40+N33:P35</f>
         <v>4532951922.2697124</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="23">
         <v>8727418130.8420372</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="23">
         <v>1059099599.7397857</v>
       </c>
       <c r="I43" s="10"/>
@@ -2253,18 +2253,18 @@
       <c r="N43" s="10"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="20">
+      <c r="F44" s="23">
         <v>-2003973938.2408991</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="23">
         <v>-4171051718.4713569</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="23">
         <v>-391327042.17191607</v>
       </c>
       <c r="I44" s="10"/>
@@ -2275,18 +2275,18 @@
       <c r="N44" s="10"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="20">
+      <c r="F45" s="23">
         <v>2244952050.1824045</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="23">
         <v>3709693550.9835916</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="23">
         <v>739570690.17717218</v>
       </c>
       <c r="I45" s="10"/>
@@ -2297,7 +2297,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -2313,7 +2313,7 @@
       <c r="N46" s="10"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -2329,7 +2329,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2345,7 +2345,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2361,7 +2361,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -2374,7 +2374,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -2387,7 +2387,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2400,7 +2400,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2413,7 +2413,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2426,7 +2426,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2439,7 +2439,7 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2452,7 +2452,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2465,7 +2465,7 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2478,25 +2478,21 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="B17:D17"/>
@@ -2505,14 +2501,18 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="N37:P37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
